--- a/2.Semester/Text and Speech/Kärcher-Terminologie_aus_TextStat_Simon_Feldmann.xlsx
+++ b/2.Semester/Text and Speech/Kärcher-Terminologie_aus_TextStat_Simon_Feldmann.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1342">
   <si>
     <t xml:space="preserve">Benennung DE 1
 Vorzugsbenennung
@@ -589,1711 +589,1714 @@
     <t xml:space="preserve">Gerätebeschreibung Abbildung A Ladestation Entriegelungstaste Schmutzwassertank Entriegelungstaste Frischwassertank Entriegelungstaste Walzenkassette Lasersensor (LiDAR) LED Display Bumper Ladekontakte Ultraschallsensor zur Teppicherkennung</t>
   </si>
   <si>
+    <t xml:space="preserve">LiDAR (ist das einmal erklärt?, wenn ja kein Fehler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweis Achten Sie darauf, dass beim Einsetzen der Bürsten- walze diese auf den im Bürstentunnel vorhandenen PIN aufgesteckt werden muss. Abbildung AB PIN Das Halteblech Bürste wieder aufstecken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenabdeckung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbildung T Die Klemmen zusammendrücken. Die Bürstenabdeckung entfernen. Die Bürste entfernen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenanpressdruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _x0007_Bürstenantrieb überlastet! _x0007_Den Bürstenanpressdruck reduzieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenantrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTA_Bodenreiniger BD 50-50.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sicherheitsschalter Wird der Sicherheitsschalter losgelassen, schaltet der Bürstenantrieb aus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenaufnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Feder Bürstenaufnahme auseinander ziehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstendrehzahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-Programm Boden nass reinigen (mit reduzierter Wassermenge und reduzierter Bürstendrehzahl) und Schmutz- wasser aufsaugen (mit reduzierter Saugleistung)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstendruck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Frischwassertank nachfüllen. _x0007_ _x0007_Bürstendruck nicht erreicht!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstendurchmesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 _x0007_ _x0007_Reinigungsbürsten _x0007_ _x0007_Bürstendrehzahl _x0007_1/min _x0007_180 _x0007_ _x0007_Bürstendurchmesser _x0007_mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min, mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wartungzähler zurücksetzen Tageszähler zurücksetzen Schlüsselverwaltung Bürstenform wählen Nachlaufzeiten Grundeinstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenkopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei montiertem D-Reinigungskopf die Scheiben- bürsten aus dem Bürstenkopf entfernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenlager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Bürste einbauen. Abbildung U Das Bürstenlager aufstecken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenlänge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenlänge _x0007_mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTA_Reinigungsroboter KIRA B50.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menüpunkte Bürstenleistung und Saugleistung verbergen/an- zeigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenmotorleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenmotorleistung _x0007_W _x0007_2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenmotorüberlastung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenreinigungsgerät</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broschüre Sicher- heitshinweise für Bürstenreinigungsgeräte und Sprühextraktionsgeräte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstentunnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur R-Reinigungskopf: Den Bürstentunnel reinigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenwalze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Bürstenwalze entnehmen. Die neue Bürstenwalze einsetzten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenwechsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinigungskopf Entriegelungstaste Bürstenwechsel Sicherheitsschalter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Info-Button drücken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centerlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit Schnellwechselkupplung und Centerlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman of the Board of Management Director Regulatory Affairs &amp; Certification Dokumentationsbevollmächtigter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman of the Board of Management Director Regulatory Affairs &amp; Certification Dokumentationsbevollmächtigter:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x0007_Aus Naturfasern zum Cleanern und Polieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rechtschreibfehler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright-Inhaber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(einschließlich der Copyright-Inhaber und Lizenzbedingungen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaktivierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaktivierung des "Nicht stören" Mo- dus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deckel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gerät darf nur betrieben werden, wenn die Haube und alle Deckel geschlossen sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desinfektionsmittel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACHTUNG Schäden am 2-in1-Staubbehälter durch Korrosion und chemische Inhaltsstoffe Keine Reinigungs- oder Desinfektionsmittel oder ande- re Reinigungsprodukte in den 2-in1-Staubbehälter fül- len</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Dichtungen zwischen dem Schmutzwassertank und dem Deckel reinigen und auf Dichtheit prüfen, ggf. ersetzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtiheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gerät auf Dichtheit prüfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtleiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vordere Dichtleiste Die Muttern (5x) lösen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtmanschette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Dichtmanschette am Sauggebläse prüfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACHTUNG Reinigungslösung im Frischwassertank Beschädigung von Frischwasserbehälter, Ventilen und Dichtungen Die Reinigungslösung nach Betriebsende niemals im Frischwassertank lassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweis Bei vollem Schmutzwassertank schaltet die Saugturbi- ne ab und das Display zeigt “Schmutzwassertank voll”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displayanzeige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sobald der Reinigungsroboter mit der Ladestation verbunden ist, leuchtet die LED Displayanzeige “Roboter-Status” gelb und die LED Displayanzeige “Akku” pulsiert grün.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display-Anzeige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Störungen mit Anzeige im Display Display-Anzeige _x0007_Behebung _x0007_ _x0007_ERR B _x0007_Prüfen, ob Fremdkörper die Bürste blockiert, gegebenenfalls Fremdkörper entfernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displaytext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast alle Displaytexte zur Parametereinstellung sind im Regelfall selbsterklärend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docking-Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Netzkabel im Gerätefach verstauen oder das Netzkabel am Docking-Port ausstecken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docking-Prozess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese werden dann nacheinander, mit einem Docking-Prozess nach jeder Route, abgefahren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockingstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Überprüfen Sie die Dockingstation auf Be- schädigungen und Verstopfungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docking-Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unregelmäßige Bennenung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a Den Docking-Port zur Docking-Station ausrichten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockingstößel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Dockingstößel auf freie Beweglichkeit prüfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dockingvorgang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bringen sie während des Dockingvorgangs keine Körperteile zwischen die Docking-Station und das Gerät.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docking-Vorgang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gerät bereitet den Docking-Vorgang vor und sucht nach einem Positionscode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentationsbevollmächtigter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosiereinrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dem Frischwasser wird auf dem Weg zum Reinigungs- kopf durch eine Dosiereinrichtung Reinigungsmittel zu- gegeben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosierhinweis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosierhinweise beachten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei höherer Dosierung muss das Reinigungsmittel in den Frischwassertank ge- geben werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dosierungsempfehlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achten Sie auf die Dosierungsempfehlung der Reini- gungs- bzw. Pflegemittel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drehgriff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Mutter lösen. Mutter Drehgriff Libelle Den Drehgriff so einstellen, die Luftblase der Libelle bei abge- senktem Saugbalken zwischen den beiden Strichen steht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Reinigungskopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druckknopf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürstenwalzen austauschen Den Druckknopf drücken und den Rammschutz zur Seite schwenken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy-Operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gerät über den Easy-Operation Schalter aus- schalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-Programm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportfahrt Zum Einsatzort fahren. Eco-Programm Boden nass reinigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIN/AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Infobutton drücken um EIN/AUS zu bestätigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einbau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Ausbau und Einbau sowie Prüfung defekter Batterien dürfen nur durch den Kärcher-Kun- dendienst oder eine Fachkraft erfolgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einbauladegerät</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Einbauladegerät des Roboters wird nicht mit Strom versorgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einfüllöffnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einfüllöffnung für Reinigungsmittel Deckel Einfüllöffnung Füllstandsanzeige Reinigungsmittel Das Reinigungsmittel einfüllen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einfüllstutzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasser (maximal 60 °C) bis zur Un- terkante des Einfüllstutzens einfüllen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einfülltrichter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Frischwasser (maximal 60 °C) bis ca. 5 cm un- terhalb des Einfülltrichters einfüllen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">°C, cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingabefeld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingabe löschen Eingabefeld Den Namen der gesuchten Route oder die Nummer des Start- Positionscode in das Eingabefeld eingeben. Die Schaltfläche Suchen drücken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingabetaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingabefeld Benutzername Eingabetaste Den Benutzernamen mit der Bildschirmtastatur eingeben und mit der Eingabetaste abschließen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einkaufszentrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einkaufszentrum Hinweis Legen Sie die Reinigungswege nicht durch oder neben Rolltrep- pen, Aufzugtüren und insbesondere Notausgängen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlernprozess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beenden von Routen Wird das Andocken der Maschine am Ende der Route ge- wünscht, muss die Route beim Einlernprozess vor einer Docking- Station beendet werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatzbedingungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind Polsicherungen defekt, müssen vom Kundendienst Einsatzbedingungen und die ge- samte Steuerung geprüft werden. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatzdauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Arbeitsbreite von 1000 mm bzw. 1200 mm und ein Fassungsvermögen der Frisch- und Schmutzwasser- tanks von jeweils 260 l ermöglichen eine effektive Rei- nigung bei hoher Einsatzdauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm, l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatzort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportfahrt Zum Einsatzort fahren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatztemperaturbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Einsatztemperaturbereich liegt zwischen +5 °C und +40 °C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatzzauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatzzauer in Abhängigkeit von Bürstenkopf, Bürs- tenanpressdruck und Rauheit des Untergrundes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellmöglichkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der graue Intelligent Key erteilt dem Aufsichtspersonal erweiterte Berechtigungen und Einstellmöglichkeiten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ie geänderte Einstellung durch Drücken des Info- buttons bestätigen oder warten, bis der eingestellte Wert nach 10 Sekunden automatisch übernommen wird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstellvorgang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gegebenenfalls den Einstellvorgang wiederholen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einwegbetrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimale Gangbreite für Einwegbetrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einzelhandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einzelhandel Platzieren Sie Positionscode in leicht zugänglichen Bereichen und stellen Sie sicher, dass sie nicht blockiert werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektro-Fachkraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">den autorisierten Kundendienst oder von einer Elektro-Fachkraft ersetzt werden, um jegliche Gefahr zu vermeiden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrokabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keine Elektrokabel oder sonstige niedrige Hindernisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endkappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Lagerdeckel zurückschwenken und die Endkappen der Bürstenwalzen im Lagerdeckel einrasten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endpole</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keine Werkzeuge oder Ähnliches auf die Batterie, d.h. auf Endpole und Zellenverbinder legen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endpunkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweis Achten Sie darauf, dass Start- und Endpunkt bei der Smart Fill Funktion identisch sein müssen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endstück</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sterngriff Abweisrollen Endstück Sauglippe Die Hülsen und die Abweisrollen abnehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entriegelung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerdeckel Bürste Entriegelungstaste Den Lagerdeckel herausschwenken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entriegelungstaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druckknopf Rammschutz Die Entriegelungstaste drücken.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entsorgung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die bei falschem Umgang oder falscher Entsorgung eine potenzielle Gefahr für die menschliche Gesundheit und die Umwelt darstellen können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entsorgungseinrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erfüllungsgrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x000e_gereinigte Fläche in Quadratmeter Erfüllungsgrad Länge der Reinigungsstrecke Reinigungsdauer Standort des Geräts gereinigte Fläche nicht gereinigte Fläche (Hindernis) Geschwindigkeit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ersatzteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwenden Sie nur Zubehör und Ersatzteile, die vom Hersteller freigegeben sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstellungsdatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaltfläche Suchen Sortierung nach Positionscodes Sortierung nach Erstellungsdatum Alphabetische Sortierung (A - Z)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstickungsgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEFAHR ● Erstickungsgefahr. Halten Sie Ver- packungsfolien von Kindern fern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstinbetriebnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach der Erstinbetriebnahme fährt der Reinigungsrobo- ter automatisch in die Ladestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartierung der Räume und mehrerer Etagen Einstellung von Zeitplänen Festlegung von No-Go Zonen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-Konformitäts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en vollständige Text der EU-Konformitäts- erklärung finden Sie unter www.kaercher.com/RCF3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-Konformitätserklärung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE 8 EU-Konformitätserklärung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE, EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU-Richtlinie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bodenreiniger Typ: 1.127-xxx Einschlägige EU-Richtlinien 2006/42/EG (+2009/127/EG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosionsgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explosionsgefahr beim Laden der Batterie!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exzenterhebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Exzenterhebel (2x) öffnen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabrik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z.B. Logistikhallen, Fabriken, In- dustrieanlagen, Parkhäuser, Messen und Einzelhandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachhandel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindestluftstrom zwischen Batterieladeraum und Umgebung Batterien und Ladegeräte sind im Fachhandel erhält- lich.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachkraft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fachpersonal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen Sie Reparaturen nur von Fachpersonal ausführen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrantrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Gerät hat einen Fahrantrieb, der Fahrmotor wird von einer Traktionsbatterie gespeist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrerseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Kehrgutbehälter kann nur über die Fahrerseite ent- nommen werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrersitz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Fahrersitz auf das richtige Körpergewicht einstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrfunktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not -Aus-Taster Wird der Not-Aus-Taster gedrückt, werden alle Reinigungs- und Fahrfunktionen sofort beendet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrgeschwindigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Fahrgeschwindigkeit bei Einlernen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrhebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEFAHR Verletzungsgefahr! Bei Gefahr Sicherheitsschalter/Fahrhebel loslassen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrmotor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schaltet der Sitz- schalter den Fahrmotor nach einer kurzen Verzögerung ab.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrpedal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Fahrpedal entlasten. Den Fahrersitz auf das richtige Körpergewicht einstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrsteg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absätze Treppen Rolltreppen, Fahrstege Hebebühnen Keine Leitern, Gerüste oder sonstige, vorübergehend vorhan- dene Hindernisse im Reinigungsbereich aufstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrstrategie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch die Berechnung der intelligenten Fahrstrategie durch die künstliche Intelligenz und die anschließende Hindernisumfahrung kann es je nach Hindernis-Situati- on einige Sekunden dauern, bis der Roboter seine re- guläre Fahrt wieder aufnimmt, um die freie Fläche in geraden Bahnen zu reinigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrtrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Fahrtrichtung mit dem Fahrtrichtungsschalter am Bedienpult einstellen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrtrichtungsschalter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Fahrtrichtungsschalter auf “vorwärts” stellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrweg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Fahrweg inner- halb der Fläche wird dabei durch das Gerät selbstständig ermit- telt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fahrzeug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beim Transport in Fahrzeugen das Gerät nach den gültigen Richtlinien gegen Rutschen und Kippen si- chern.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fallkante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mindestabstand zur Fallkante (Parallelfahrt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbcodierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierbei die Farbcodierung be- achten (grau zu grau, weiß zu weiß)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbkennzeichnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbkennzeichnung Bedienelemente für den Reinigungs- prozess sind gelb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farbverdünner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dazu zählen Benzin, Farbverdünner oder Heizöl, die durch Verwirbelung mit der Saugluft explosive Dämpfe oder Gemische bilden können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fassungsvermögen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eine Arbeitsbreite von 1000 mm bzw. 1200 mm und ein Fassungsvermögen der Frisch- und Schmutzwasser- tanks von jeweils 260 l ermöglichen eine effektive Rei- nigung bei hoher Einsatzdauer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fastmode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei der Aktivierung von “Fast mode” wird der Fast mode akti- viert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlerfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlerfall Funktionen Schlafmodus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kein anderer Kontext vorhanden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlermeldung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lässt sich der Fehler nicht beheben, den Kun- dendienst unter Angabe der Fehlermeldung ru- fen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlermodus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Reinigungsroboter schaltet sich automatisch aus, wenn er sich länger als 6 Stunden im Schlaf- modus befindet Fehlermodus Wenn der Reinigungsroboter während des Betriebs auf einen Fehler stößt, blinkt die Anzeige rot und es ertönt ein Signal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fehlerstromschutzschalter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aus Sicherheitsgründen empfehlen wir das Ge- rät grundsätzlich nur über einen Fehlerstromschutzschalter (maximal 30 mA) zu betrei- ben. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feinsteinzeug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedrige Bürstendrehzahl zur Entfer- nung von Grauschleier auf Feinsteinzeug.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feinsteinzeugfliese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterhaltsreinigung und Grundreini- gung von Feinsteinzeugfliesen _x0007_RM 753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM753? Was ist das?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernsteuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fernsteuerung In der App gibt es die Möglichkeit den Roboter zu navi- gieren,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feststellbremse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Feststellbremse durch den Hebel lösen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill-Funktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Smart Fill Funktion Die Smart Fill-Funktion ist für große, freistehende Flächen ge- dacht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Filter entnehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filterabreinigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nach dem Abschalten laufen Saugturbine, Seitenbesen und Filterabreinigung nach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filterfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _x0007_Filterfläche Staubfilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtergehäuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdeckung Filtergehäuse Haube Vorkehreinheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filterkastendichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Filterkastendichtung prüfen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filterklappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Filterklappe abnehmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die aktuellste Version der Firmware ist aufgespielt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flächenbelastung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zulässige Flächenbelastung des Bodens berücksichtigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flächenleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theoretische Flächenleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flächenpressung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max. Flächenpressung (inkl.Fahrer, Wasser)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max., inkl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flächenumrandung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Einlernen einer Route beginnen und bis zum Startpunkt für die Flächenumrandung vorarbeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleischtheke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleischtheke Dieser Bereich muss häufiger gereinigt werden, da hier die Hygienestandards noch höher sind und eine saubere Um- gebung äußerst wichtig ist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flügelmutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flügelmuttern zum Befestigen des Saugbalkens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flügelschraube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Flügelschraube mit Unterlegscheibe eindrehen und fest- ziehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flusensieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durch den Betrieb ohne Flusensieb kann die Saugturbi- ne beschädigt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flüssigkeitsauftrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polieren Boden ohne Flüssigkeitsauftrag mit hoher Bürsten- drehzahl polieren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flüssigkeitszufuhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei leerem Frischwassertank arbeitet der Reinigungskopf ohne Flüssigkeitszufuhr weiter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flusssäure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verwenden Sie nur Reinigungsmittel, die frei von Lö- sungsmitteln, Salz- und Flusssäure sind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food-Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meiden Sie Bereiche mit vielen Stühlen und Tischen (z. B. Food-Courts) und reinigen Sie diese manuell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formblech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saugbalken so in Saugbalkenaufhän- gung einsetzen, dass das Formblech über der Aufhängung liegt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freifläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dazu kann während einer Teach-In Route mehrmals die Smart Fill Funktion für unterschied- liche Freiflächen genutzt werden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremdkörper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x0007_Bürste dreht sich nicht _x0007_Prüfen, ob Fremdkörper die Bürste blockiert, gegebenenfalls Fremdkörper entfernen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fremdzusatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequentierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eingangs- und Ausgangsbereich Aufgrund der höheren Frequentierung muss der Eingangs- und Ausgangsbereich häufiger gereinigt werden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequenzbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequenzbereich _x0007_Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frisch-/Schmutzwassertank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_x0007_Volumen Frisch-/Schmutzwassertank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei Zugabe des Reinigungsmittels in den Frischwasser- tank kann das Reinigungsmittel eintrocknen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasserbehälter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACHTUNG Reinigungslösung im Frischwassertank Beschädigung von Frischwasserbehälter, Ventilen und Dichtungen Die Reinigungslösung nach Betriebsende niemals im Frischwassertank lassen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasserfilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Den Frischwasserfilter reinigen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasserschlauch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasserstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwasserstandsanzeige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischwassertank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frostgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frostschutz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Füllautomatik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Füllstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Füllstandsanzeige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Füllvorgang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funkgerätetyp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionsbeschreibung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionselement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionsstörung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionstest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionsumfang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funktionswahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fußbremse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabelschlüssel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabelzinken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangbreite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantieanspruch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantiebedingung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantiefall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantiefrist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garantieleistung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaspedal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geamt-Betriebsstunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebrauchsanweisung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEFAHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrenbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrensituation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrenstelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrenstufe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrgutrecht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefahrstelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gefälle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gehäuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemüsebereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerät</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerätebeschreibung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerätefach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerätefunktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geräteposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geräteseite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerätestecker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geräuschpegel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtgewicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschäftszeiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschwindikeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesetzgeber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesundheitsanforderungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesundheitsgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gewichtsverstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasgeländer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasreiniger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasscherbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasschiebetür</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glastrennwand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gliedmaßen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grauschleier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenzwert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobschmutz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobschmutzbeälter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobschmutzbehälter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobschmutzklappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobschmutzkorb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grobschmutzsieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundeinstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundeinstellungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundreinigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gültigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gummilasche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haarkamm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halteblech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halteklotz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halterung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halteschiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hand-Arm-Vibrationswert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Händler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handschuhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hartboden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptfunktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauptmenü</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hausmüll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebebühne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heizöl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heizung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hersteller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herstellungsfehler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinderniserkennung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindernis-Situation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hindernisumfahrung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinterrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweisschild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hinweissymbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hochdruckwasserstrahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höheneinstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Höhenverstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holzklotz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holzleiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holzstück</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holzunterbau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homebase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home-Taste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hub-/Cleanmodul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hub/Zubehörmodulversorgung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hubantrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hygienestandard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbetriebnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indikatorborste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indikatorenborste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industriebelag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infobutton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info-Button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrarot-Empfänger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrarot-Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhaltsstoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhaltsverzeichnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Innenraum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspektion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instandsetzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensiv-Modus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabelaufnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabelbefestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabelhaken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabellänge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kantholz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kärcher-Kundendienst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartenerstellung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kassenbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kassettenführung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaufbeleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrbehälter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrbetrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehreinrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrgut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrgutbehälter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrwalze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrwalzenantrieb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrwalzenbreite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrwalzendrehzahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrwalzendurchmesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kehrwirkung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keilriemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kennzeichnung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFZ-Flachstecksicherung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kieselsteine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kippgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klarsicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klarsichtfolie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klebestreifen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klemme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klemmhebel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klettband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klettbefestigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klettverschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knickung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kollisionssensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kombireinigung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komplett-Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Konstruktion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korkboden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Körperverletzung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korrosion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreuzschlitzschraube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreuzschlitzschraubendreher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kugelhahn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kühlhaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kundendienst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kundendienststelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kundendientst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kundenservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunststoffteil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kupplung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurzanleitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurzschluss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurzschlussgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladegerät</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladekabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladekontakt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladekontakte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladeprozess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladestation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladestrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladevorgang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladevorrichtung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladezeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ladezustand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerdauer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerdeckel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laminat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landesgesellschaft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landmarke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laserdistanzsensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser-Distanzsensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laserradar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laserscanner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laser-Schutzklasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasersensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laserstrahlung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauffläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebensgefahr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebenszeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-Anzeige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-Displayanzeige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-Leuchte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leergewicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leichtgängigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistungsaufnahme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leistungsdaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenkbewegung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenkrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenkradknauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenkradposition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenkrolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licht-/Schattengrenzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lichteinfall</t>
+  </si>
+  <si>
     <t xml:space="preserve">LiDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweis Achten Sie darauf, dass beim Einsetzen der Bürsten- walze diese auf den im Bürstentunnel vorhandenen PIN aufgesteckt werden muss. Abbildung AB PIN Das Halteblech Bürste wieder aufstecken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenabdeckung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abbildung T Die Klemmen zusammendrücken. Die Bürstenabdeckung entfernen. Die Bürste entfernen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenanpressdruck</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _x0007_Bürstenantrieb überlastet! _x0007_Den Bürstenanpressdruck reduzieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenantrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTA_Bodenreiniger BD 50-50.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sicherheitsschalter Wird der Sicherheitsschalter losgelassen, schaltet der Bürstenantrieb aus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenaufnahme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Feder Bürstenaufnahme auseinander ziehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstendrehzahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eco-Programm Boden nass reinigen (mit reduzierter Wassermenge und reduzierter Bürstendrehzahl) und Schmutz- wasser aufsaugen (mit reduzierter Saugleistung)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstendruck</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Frischwassertank nachfüllen. _x0007_ _x0007_Bürstendruck nicht erreicht!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstendurchmesser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 _x0007_ _x0007_Reinigungsbürsten _x0007_ _x0007_Bürstendrehzahl _x0007_1/min _x0007_180 _x0007_ _x0007_Bürstendurchmesser _x0007_mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min, mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wartungzähler zurücksetzen Tageszähler zurücksetzen Schlüsselverwaltung Bürstenform wählen Nachlaufzeiten Grundeinstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenkopf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei montiertem D-Reinigungskopf die Scheiben- bürsten aus dem Bürstenkopf entfernen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenlager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Bürste einbauen. Abbildung U Das Bürstenlager aufstecken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenlänge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenlänge _x0007_mm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTA_Reinigungsroboter KIRA B50.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menüpunkte Bürstenleistung und Saugleistung verbergen/an- zeigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenmotorleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenmotorleistung _x0007_W _x0007_2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenmotorüberlastung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenreinigungsgerät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broschüre Sicher- heitshinweise für Bürstenreinigungsgeräte und Sprühextraktionsgeräte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstentunnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur R-Reinigungskopf: Den Bürstentunnel reinigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenwalze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Bürstenwalze entnehmen. Die neue Bürstenwalze einsetzten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenwechsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinigungskopf Entriegelungstaste Bürstenwechsel Sicherheitsschalter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Info-Button drücken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centerlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mit Schnellwechselkupplung und Centerlock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chairman of the Board of Management Director Regulatory Affairs &amp; Certification Dokumentationsbevollmächtigter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chairman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chairman of the Board of Management Director Regulatory Affairs &amp; Certification Dokumentationsbevollmächtigter:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleaner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x0007_Aus Naturfasern zum Cleanern und Polieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechtschreibfehler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright-Inhaber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(einschließlich der Copyright-Inhaber und Lizenzbedingungen)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaktivierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deaktivierung des "Nicht stören" Mo- dus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deckel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Gerät darf nur betrieben werden, wenn die Haube und alle Deckel geschlossen sind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desinfektionsmittel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACHTUNG Schäden am 2-in1-Staubbehälter durch Korrosion und chemische Inhaltsstoffe Keine Reinigungs- oder Desinfektionsmittel oder ande- re Reinigungsprodukte in den 2-in1-Staubbehälter fül- len</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichtheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Dichtungen zwischen dem Schmutzwassertank und dem Deckel reinigen und auf Dichtheit prüfen, ggf. ersetzen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichtiheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Gerät auf Dichtheit prüfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichtleiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vordere Dichtleiste Die Muttern (5x) lösen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichtmanschette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Dichtmanschette am Sauggebläse prüfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACHTUNG Reinigungslösung im Frischwassertank Beschädigung von Frischwasserbehälter, Ventilen und Dichtungen Die Reinigungslösung nach Betriebsende niemals im Frischwassertank lassen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweis Bei vollem Schmutzwassertank schaltet die Saugturbi- ne ab und das Display zeigt “Schmutzwassertank voll”.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displayanzeige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sobald der Reinigungsroboter mit der Ladestation verbunden ist, leuchtet die LED Displayanzeige “Roboter-Status” gelb und die LED Displayanzeige “Akku” pulsiert grün.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display-Anzeige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Störungen mit Anzeige im Display Display-Anzeige _x0007_Behebung _x0007_ _x0007_ERR B _x0007_Prüfen, ob Fremdkörper die Bürste blockiert, gegebenenfalls Fremdkörper entfernen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displaytext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fast alle Displaytexte zur Parametereinstellung sind im Regelfall selbsterklärend.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docking-Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Netzkabel im Gerätefach verstauen oder das Netzkabel am Docking-Port ausstecken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docking-Prozess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diese werden dann nacheinander, mit einem Docking-Prozess nach jeder Route, abgefahren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dockingstation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Überprüfen Sie die Dockingstation auf Be- schädigungen und Verstopfungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docking-Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unregelmäßige Bennenung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a Den Docking-Port zur Docking-Station ausrichten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dockingstößel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Dockingstößel auf freie Beweglichkeit prüfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dockingvorgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bringen sie während des Dockingvorgangs keine Körperteile zwischen die Docking-Station und das Gerät.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Docking-Vorgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Gerät bereitet den Docking-Vorgang vor und sucht nach einem Positionscode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokumentationsbevollmächtigter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosiereinrichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dem Frischwasser wird auf dem Weg zum Reinigungs- kopf durch eine Dosiereinrichtung Reinigungsmittel zu- gegeben.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosierhinweis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosierhinweise beachten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei höherer Dosierung muss das Reinigungsmittel in den Frischwassertank ge- geben werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosierungsempfehlung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achten Sie auf die Dosierungsempfehlung der Reini- gungs- bzw. Pflegemittel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drehgriff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Mutter lösen. Mutter Drehgriff Libelle Den Drehgriff so einstellen, die Luftblase der Libelle bei abge- senktem Saugbalken zwischen den beiden Strichen steht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Reinigungskopf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Druckknopf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürstenwalzen austauschen Den Druckknopf drücken und den Rammschutz zur Seite schwenken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy-Operation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Gerät über den Easy-Operation Schalter aus- schalten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eco-Programm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportfahrt Zum Einsatzort fahren. Eco-Programm Boden nass reinigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EIN/AUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Infobutton drücken um EIN/AUS zu bestätigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einbau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Ausbau und Einbau sowie Prüfung defekter Batterien dürfen nur durch den Kärcher-Kun- dendienst oder eine Fachkraft erfolgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einbauladegerät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Einbauladegerät des Roboters wird nicht mit Strom versorgt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einfüllöffnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einfüllöffnung für Reinigungsmittel Deckel Einfüllöffnung Füllstandsanzeige Reinigungsmittel Das Reinigungsmittel einfüllen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einfüllstutzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasser (maximal 60 °C) bis zur Un- terkante des Einfüllstutzens einfüllen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">°C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einfülltrichter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Frischwasser (maximal 60 °C) bis ca. 5 cm un- terhalb des Einfülltrichters einfüllen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">°C, cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingabefeld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingabe löschen Eingabefeld Den Namen der gesuchten Route oder die Nummer des Start- Positionscode in das Eingabefeld eingeben. Die Schaltfläche Suchen drücken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingabetaste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingabefeld Benutzername Eingabetaste Den Benutzernamen mit der Bildschirmtastatur eingeben und mit der Eingabetaste abschließen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einkaufszentrum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einkaufszentrum Hinweis Legen Sie die Reinigungswege nicht durch oder neben Rolltrep- pen, Aufzugtüren und insbesondere Notausgängen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einlernprozess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beenden von Routen Wird das Andocken der Maschine am Ende der Route ge- wünscht, muss die Route beim Einlernprozess vor einer Docking- Station beendet werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzbedingungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ind Polsicherungen defekt, müssen vom Kundendienst Einsatzbedingungen und die ge- samte Steuerung geprüft werden. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzdauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Arbeitsbreite von 1000 mm bzw. 1200 mm und ein Fassungsvermögen der Frisch- und Schmutzwasser- tanks von jeweils 260 l ermöglichen eine effektive Rei- nigung bei hoher Einsatzdauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm, l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportfahrt Zum Einsatzort fahren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatztemperaturbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Einsatztemperaturbereich liegt zwischen +5 °C und +40 °C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzzauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzzauer in Abhängigkeit von Bürstenkopf, Bürs- tenanpressdruck und Rauheit des Untergrundes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einstellmöglichkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der graue Intelligent Key erteilt dem Aufsichtspersonal erweiterte Berechtigungen und Einstellmöglichkeiten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ie geänderte Einstellung durch Drücken des Info- buttons bestätigen oder warten, bis der eingestellte Wert nach 10 Sekunden automatisch übernommen wird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einstellvorgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gegebenenfalls den Einstellvorgang wiederholen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einwegbetrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimale Gangbreite für Einwegbetrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einzelhandel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einzelhandel Platzieren Sie Positionscode in leicht zugänglichen Bereichen und stellen Sie sicher, dass sie nicht blockiert werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektro-Fachkraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">den autorisierten Kundendienst oder von einer Elektro-Fachkraft ersetzt werden, um jegliche Gefahr zu vermeiden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrokabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keine Elektrokabel oder sonstige niedrige Hindernisse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endkappe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Lagerdeckel zurückschwenken und die Endkappen der Bürstenwalzen im Lagerdeckel einrasten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endpole</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keine Werkzeuge oder Ähnliches auf die Batterie, d.h. auf Endpole und Zellenverbinder legen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endpunkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweis Achten Sie darauf, dass Start- und Endpunkt bei der Smart Fill Funktion identisch sein müssen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endstück</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sterngriff Abweisrollen Endstück Sauglippe Die Hülsen und die Abweisrollen abnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entriegelung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagerdeckel Bürste Entriegelungstaste Den Lagerdeckel herausschwenken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entriegelungstaste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Druckknopf Rammschutz Die Entriegelungstaste drücken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entsorgung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">die bei falschem Umgang oder falscher Entsorgung eine potenzielle Gefahr für die menschliche Gesundheit und die Umwelt darstellen können</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entsorgungseinrichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfüllungsgrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x000e_gereinigte Fläche in Quadratmeter Erfüllungsgrad Länge der Reinigungsstrecke Reinigungsdauer Standort des Geräts gereinigte Fläche nicht gereinigte Fläche (Hindernis) Geschwindigkeit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ersatzteil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwenden Sie nur Zubehör und Ersatzteile, die vom Hersteller freigegeben sind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstellungsdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schaltfläche Suchen Sortierung nach Positionscodes Sortierung nach Erstellungsdatum Alphabetische Sortierung (A - Z)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstickungsgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEFAHR ● Erstickungsgefahr. Halten Sie Ver- packungsfolien von Kindern fern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erstinbetriebnahme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nach der Erstinbetriebnahme fährt der Reinigungsrobo- ter automatisch in die Ladestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartierung der Räume und mehrerer Etagen Einstellung von Zeitplänen Festlegung von No-Go Zonen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-Konformitäts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">en vollständige Text der EU-Konformitäts- erklärung finden Sie unter www.kaercher.com/RCF3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-Konformitätserklärung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE 8 EU-Konformitätserklärung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE, EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU-Richtlinie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bodenreiniger Typ: 1.127-xxx Einschlägige EU-Richtlinien 2006/42/EG (+2009/127/EG) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosionsgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explosionsgefahr beim Laden der Batterie!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exzenterhebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Exzenterhebel (2x) öffnen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabrik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z.B. Logistikhallen, Fabriken, In- dustrieanlagen, Parkhäuser, Messen und Einzelhandel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachhandel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindestluftstrom zwischen Batterieladeraum und Umgebung Batterien und Ladegeräte sind im Fachhandel erhält- lich.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachkraft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fachpersonal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lassen Sie Reparaturen nur von Fachpersonal ausführen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrantrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Gerät hat einen Fahrantrieb, der Fahrmotor wird von einer Traktionsbatterie gespeist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrerseite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Kehrgutbehälter kann nur über die Fahrerseite ent- nommen werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrersitz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Fahrersitz auf das richtige Körpergewicht einstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrfunktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not -Aus-Taster Wird der Not-Aus-Taster gedrückt, werden alle Reinigungs- und Fahrfunktionen sofort beendet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrgeschwindigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Fahrgeschwindigkeit bei Einlernen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrhebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEFAHR Verletzungsgefahr! Bei Gefahr Sicherheitsschalter/Fahrhebel loslassen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrmotor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schaltet der Sitz- schalter den Fahrmotor nach einer kurzen Verzögerung ab.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrpedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Fahrpedal entlasten. Den Fahrersitz auf das richtige Körpergewicht einstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrsteg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absätze Treppen Rolltreppen, Fahrstege Hebebühnen Keine Leitern, Gerüste oder sonstige, vorübergehend vorhan- dene Hindernisse im Reinigungsbereich aufstellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrstrategie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durch die Berechnung der intelligenten Fahrstrategie durch die künstliche Intelligenz und die anschließende Hindernisumfahrung kann es je nach Hindernis-Situati- on einige Sekunden dauern, bis der Roboter seine re- guläre Fahrt wieder aufnimmt, um die freie Fläche in geraden Bahnen zu reinigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrtrichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Fahrtrichtung mit dem Fahrtrichtungsschalter am Bedienpult einstellen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrtrichtungsschalter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Fahrtrichtungsschalter auf “vorwärts” stellen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrweg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Fahrweg inner- halb der Fläche wird dabei durch das Gerät selbstständig ermit- telt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fahrzeug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beim Transport in Fahrzeugen das Gerät nach den gültigen Richtlinien gegen Rutschen und Kippen si- chern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fallkante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mindestabstand zur Fallkante (Parallelfahrt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farbcodierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hierbei die Farbcodierung be- achten (grau zu grau, weiß zu weiß)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farbkennzeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farbkennzeichnung Bedienelemente für den Reinigungs- prozess sind gelb.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farbverdünner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dazu zählen Benzin, Farbverdünner oder Heizöl, die durch Verwirbelung mit der Saugluft explosive Dämpfe oder Gemische bilden können</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fassungsvermögen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eine Arbeitsbreite von 1000 mm bzw. 1200 mm und ein Fassungsvermögen der Frisch- und Schmutzwasser- tanks von jeweils 260 l ermöglichen eine effektive Rei- nigung bei hoher Einsatzdauer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fastmode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei der Aktivierung von “Fast mode” wird der Fast mode akti- viert.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehlerfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehlerfall Funktionen Schlafmodus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kein anderer Kontext vorhanden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehlermeldung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lässt sich der Fehler nicht beheben, den Kun- dendienst unter Angabe der Fehlermeldung ru- fen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehlermodus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Reinigungsroboter schaltet sich automatisch aus, wenn er sich länger als 6 Stunden im Schlaf- modus befindet Fehlermodus Wenn der Reinigungsroboter während des Betriebs auf einen Fehler stößt, blinkt die Anzeige rot und es ertönt ein Signal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fehlerstromschutzschalter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aus Sicherheitsgründen empfehlen wir das Ge- rät grundsätzlich nur über einen Fehlerstromschutzschalter (maximal 30 mA) zu betrei- ben. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feinsteinzeug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedrige Bürstendrehzahl zur Entfer- nung von Grauschleier auf Feinsteinzeug.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feinsteinzeugfliese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterhaltsreinigung und Grundreini- gung von Feinsteinzeugfliesen _x0007_RM 753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernsteuerung</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fernsteuerung In der App gibt es die Möglichkeit den Roboter zu navi- gieren,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feststellbremse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Feststellbremse durch den Hebel lösen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fill-Funktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Smart Fill Funktion Die Smart Fill-Funktion ist für große, freistehende Flächen ge- dacht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Filter entnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filterabreinigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nach dem Abschalten laufen Saugturbine, Seitenbesen und Filterabreinigung nach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filterfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _x0007_Filterfläche Staubfilter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtergehäuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdeckung Filtergehäuse Haube Vorkehreinheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filterkastendichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Filterkastendichtung prüfen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filterklappe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Filterklappe abnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firmware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die aktuellste Version der Firmware ist aufgespielt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flächenbelastung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zulässige Flächenbelastung des Bodens berücksichtigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flächenleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theoretische Flächenleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flächenpressung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max. Flächenpressung (inkl.Fahrer, Wasser)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max., inkl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flächenumrandung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Einlernen einer Route beginnen und bis zum Startpunkt für die Flächenumrandung vorarbeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleischtheke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleischtheke Dieser Bereich muss häufiger gereinigt werden, da hier die Hygienestandards noch höher sind und eine saubere Um- gebung äußerst wichtig ist.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flügelmutter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flügelmuttern zum Befestigen des Saugbalkens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flügelschraube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Flügelschraube mit Unterlegscheibe eindrehen und fest- ziehen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flusensieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Durch den Betrieb ohne Flusensieb kann die Saugturbi- ne beschädigt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flüssigkeitsauftrag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polieren Boden ohne Flüssigkeitsauftrag mit hoher Bürsten- drehzahl polieren.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flüssigkeitszufuhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei leerem Frischwassertank arbeitet der Reinigungskopf ohne Flüssigkeitszufuhr weiter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flusssäure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verwenden Sie nur Reinigungsmittel, die frei von Lö- sungsmitteln, Salz- und Flusssäure sind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food-Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meiden Sie Bereiche mit vielen Stühlen und Tischen (z. B. Food-Courts) und reinigen Sie diese manuell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formblech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saugbalken so in Saugbalkenaufhän- gung einsetzen, dass das Formblech über der Aufhängung liegt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freifläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dazu kann während einer Teach-In Route mehrmals die Smart Fill Funktion für unterschied- liche Freiflächen genutzt werden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremdkörper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x0007_Bürste dreht sich nicht _x0007_Prüfen, ob Fremdkörper die Bürste blockiert, gegebenenfalls Fremdkörper entfernen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fremdzusatz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequentierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eingangs- und Ausgangsbereich Aufgrund der höheren Frequentierung muss der Eingangs- und Ausgangsbereich häufiger gereinigt werden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequenzbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frequenzbereich _x0007_Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frisch-/Schmutzwassertank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_x0007_Volumen Frisch-/Schmutzwassertank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei Zugabe des Reinigungsmittels in den Frischwasser- tank kann das Reinigungsmittel eintrocknen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasserbehälter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACHTUNG Reinigungslösung im Frischwassertank Beschädigung von Frischwasserbehälter, Ventilen und Dichtungen Die Reinigungslösung nach Betriebsende niemals im Frischwassertank lassen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasserfilter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Den Frischwasserfilter reinigen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasserschlauch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasserstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwasserstandsanzeige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frischwassertank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frostgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frostschutz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Füllautomatik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Füllstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Füllstandsanzeige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Füllvorgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funkgerätetyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionsbeschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionselement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionsstörung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionstest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionsumfang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funktionswahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fußbremse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabelschlüssel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabelzinken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gangbreite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantieanspruch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantiebedingung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantiefall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantiefrist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garantieleistung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaspedal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geamt-Betriebsstunden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gebrauchsanweisung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEFAHR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrenbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrensituation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrenstelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrenstufe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrgutrecht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefahrstelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gefälle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gehäuse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gemüsebereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerätebeschreibung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerätefach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerätefunktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geräteposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geräteseite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerätestecker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geräuschpegel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamtbild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamtgewicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschäftszeiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschwindikeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesetzgeber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesundheitsanforderungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesundheitsgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gewichtsverstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasgeländer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasreiniger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasscherbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasschiebetür</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glastrennwand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gliedmaßen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grauschleier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenzwert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Griff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobschmutz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobschmutzbeälter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobschmutzbehälter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobschmutzklappe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobschmutzkorb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grobschmutzsieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundeinstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundeinstellungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundreinigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gültigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gummilasche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haarkamm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halteblech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halteklotz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halterung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halteschiene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hand-Arm-Vibrationswert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Händler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handschuhe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hartboden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauptfunktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauptmenü</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hausmüll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebebühne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heizöl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heizung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hersteller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herstellungsfehler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinderniserkennung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindernis-Situation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hindernisumfahrung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinterrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweisschild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweissymbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hochdruckwasserstrahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höheneinstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Höhenverstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holzklotz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holzleiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holzstück</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holzunterbau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homebase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home-Taste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hub-/Cleanmodul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hub/Zubehörmodulversorgung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hubantrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hygienestandard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbetriebnahme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indikatorborste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indikatorenborste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industriebelag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infobutton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Info-Button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrarot-Empfänger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infrarot-Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhaltsstoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhaltsverzeichnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Innenraum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inspektion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instandsetzung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intensiv-Modus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabelaufnahme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabelbefestigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabelhaken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabellänge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kantholz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kärcher-Kundendienst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartenerstellung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kartierung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassenbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kassettenführung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaufbeleg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrbehälter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrbetrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehreinrichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrgut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrgutbehälter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrwalze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrwalzenantrieb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrwalzenbreite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrwalzendrehzahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrwalzendurchmesser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kehrwirkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keilriemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kennzeichnung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KFZ-Flachstecksicherung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kieselsteine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kippgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klappe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klarsicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klarsichtfolie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klebestreifen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klemme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klemmhebel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klettband</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klettbefestigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klettverschluss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knickung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kollisionssensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kombireinigung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komplett-Set</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Konstruktion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korkboden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Körperverletzung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korrosion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreuzschlitzschraube</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreuzschlitzschraubendreher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kugelhahn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kühlhaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kundendienst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kundendienststelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kundendientst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kundenservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunststoffteil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kupplung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurzanleitung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurzschluss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurzschlussgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladegerät</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladekabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladekontakt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladekontakte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladeprozess</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladestrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladevorgang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladevorrichtung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladezeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladezustand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagerdauer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagerdeckel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagerfläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagerung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laminat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landesgesellschaft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landmarke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laserdistanzsensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laser-Distanzsensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laserradar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laserscanner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laser-Schutzklasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lasersensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laserstrahlung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauffläche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebensgefahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebenszeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-Anzeige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-Displayanzeige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED-Leuchte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leergewicht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leichtgängigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leistungsaufnahme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leistungsdaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenkbewegung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenkrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenkradknauf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenkradposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lenkrolle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licht-/Schattengrenzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lichteinfall</t>
   </si>
   <si>
     <t xml:space="preserve">LiDAR-Turm</t>
@@ -4467,10 +4470,10 @@
   </sheetPr>
   <dimension ref="A1:CL1130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4248" ySplit="0" topLeftCell="C163" activePane="topLeft" state="split"/>
-      <selection pane="topLeft" activeCell="A208" activeCellId="0" sqref="A208"/>
-      <selection pane="topRight" activeCell="C163" activeCellId="0" sqref="C163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A266" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8568" ySplit="0" topLeftCell="C266" activePane="topRight" state="split"/>
+      <selection pane="topLeft" activeCell="A266" activeCellId="0" sqref="A266"/>
+      <selection pane="topRight" activeCell="C266" activeCellId="0" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4484,7 +4487,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.2"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6580,7 +6583,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6" t="s">
         <v>261</v>
       </c>
@@ -6678,7 +6681,7 @@
       <c r="CK201" s="8"/>
       <c r="CL201" s="8"/>
     </row>
-    <row r="202" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6" t="s">
         <v>263</v>
       </c>
@@ -6776,7 +6779,7 @@
       <c r="CK202" s="8"/>
       <c r="CL202" s="8"/>
     </row>
-    <row r="203" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6" t="s">
         <v>265</v>
       </c>
@@ -6974,7 +6977,7 @@
       <c r="CK204" s="8"/>
       <c r="CL204" s="8"/>
     </row>
-    <row r="205" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6" t="s">
         <v>270</v>
       </c>
@@ -7072,7 +7075,7 @@
       <c r="CK205" s="8"/>
       <c r="CL205" s="8"/>
     </row>
-    <row r="206" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6" t="s">
         <v>272</v>
       </c>
@@ -7474,7 +7477,7 @@
       <c r="CK209" s="8"/>
       <c r="CL209" s="8"/>
     </row>
-    <row r="210" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6" t="s">
         <v>281</v>
       </c>
@@ -7678,7 +7681,7 @@
       <c r="CK211" s="8"/>
       <c r="CL211" s="8"/>
     </row>
-    <row r="212" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
         <v>285</v>
       </c>
@@ -7776,7 +7779,7 @@
       <c r="CK212" s="8"/>
       <c r="CL212" s="8"/>
     </row>
-    <row r="213" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6" t="s">
         <v>286</v>
       </c>
@@ -7972,7 +7975,7 @@
       <c r="CK214" s="8"/>
       <c r="CL214" s="8"/>
     </row>
-    <row r="215" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>290</v>
       </c>
@@ -8168,7 +8171,7 @@
       <c r="CK216" s="8"/>
       <c r="CL216" s="8"/>
     </row>
-    <row r="217" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>294</v>
       </c>
@@ -8266,7 +8269,7 @@
       <c r="CK217" s="8"/>
       <c r="CL217" s="8"/>
     </row>
-    <row r="218" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>296</v>
       </c>
@@ -8364,7 +8367,7 @@
       <c r="CK218" s="8"/>
       <c r="CL218" s="8"/>
     </row>
-    <row r="219" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6" t="s">
         <v>297</v>
       </c>
@@ -8758,7 +8761,7 @@
       <c r="CK222" s="8"/>
       <c r="CL222" s="8"/>
     </row>
-    <row r="223" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6" t="s">
         <v>305</v>
       </c>
@@ -8954,7 +8957,7 @@
       <c r="CK224" s="8"/>
       <c r="CL224" s="8"/>
     </row>
-    <row r="225" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6" t="s">
         <v>309</v>
       </c>
@@ -9152,7 +9155,7 @@
       <c r="CK226" s="8"/>
       <c r="CL226" s="8"/>
     </row>
-    <row r="227" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6" t="s">
         <v>314</v>
       </c>
@@ -9252,7 +9255,7 @@
       <c r="CK227" s="8"/>
       <c r="CL227" s="8"/>
     </row>
-    <row r="228" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6" t="s">
         <v>317</v>
       </c>
@@ -9350,7 +9353,7 @@
       <c r="CK228" s="8"/>
       <c r="CL228" s="8"/>
     </row>
-    <row r="229" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6" t="s">
         <v>319</v>
       </c>
@@ -9448,7 +9451,7 @@
       <c r="CK229" s="8"/>
       <c r="CL229" s="8"/>
     </row>
-    <row r="230" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6" t="s">
         <v>321</v>
       </c>
@@ -9546,7 +9549,7 @@
       <c r="CK230" s="8"/>
       <c r="CL230" s="8"/>
     </row>
-    <row r="231" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6" t="s">
         <v>323</v>
       </c>
@@ -9644,7 +9647,7 @@
       <c r="CK231" s="8"/>
       <c r="CL231" s="8"/>
     </row>
-    <row r="232" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6" t="s">
         <v>325</v>
       </c>
@@ -9742,7 +9745,7 @@
       <c r="CK232" s="8"/>
       <c r="CL232" s="8"/>
     </row>
-    <row r="233" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6" t="s">
         <v>327</v>
       </c>
@@ -10040,7 +10043,7 @@
       <c r="CK235" s="8"/>
       <c r="CL235" s="8"/>
     </row>
-    <row r="236" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
         <v>334</v>
       </c>
@@ -10138,7 +10141,7 @@
       <c r="CK236" s="8"/>
       <c r="CL236" s="8"/>
     </row>
-    <row r="237" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
         <v>336</v>
       </c>
@@ -10236,7 +10239,7 @@
       <c r="CK237" s="8"/>
       <c r="CL237" s="8"/>
     </row>
-    <row r="238" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>338</v>
       </c>
@@ -10530,7 +10533,7 @@
       <c r="CK240" s="8"/>
       <c r="CL240" s="8"/>
     </row>
-    <row r="241" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6" t="s">
         <v>344</v>
       </c>
@@ -10628,7 +10631,7 @@
       <c r="CK241" s="8"/>
       <c r="CL241" s="8"/>
     </row>
-    <row r="242" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6" t="s">
         <v>346</v>
       </c>
@@ -10824,7 +10827,7 @@
       <c r="CK243" s="8"/>
       <c r="CL243" s="8"/>
     </row>
-    <row r="244" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6" t="s">
         <v>350</v>
       </c>
@@ -10922,7 +10925,7 @@
       <c r="CK244" s="8"/>
       <c r="CL244" s="8"/>
     </row>
-    <row r="245" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6" t="s">
         <v>352</v>
       </c>
@@ -11020,7 +11023,7 @@
       <c r="CK245" s="8"/>
       <c r="CL245" s="8"/>
     </row>
-    <row r="246" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6" t="s">
         <v>354</v>
       </c>
@@ -11118,7 +11121,7 @@
       <c r="CK246" s="8"/>
       <c r="CL246" s="8"/>
     </row>
-    <row r="247" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6" t="s">
         <v>356</v>
       </c>
@@ -11412,7 +11415,7 @@
       <c r="CK249" s="8"/>
       <c r="CL249" s="8"/>
     </row>
-    <row r="250" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6" t="s">
         <v>362</v>
       </c>
@@ -11604,7 +11607,7 @@
       <c r="CK251" s="8"/>
       <c r="CL251" s="8"/>
     </row>
-    <row r="252" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6" t="s">
         <v>365</v>
       </c>
@@ -11800,7 +11803,7 @@
       <c r="CK253" s="8"/>
       <c r="CL253" s="8"/>
     </row>
-    <row r="254" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6" t="s">
         <v>369</v>
       </c>
@@ -11996,7 +11999,7 @@
       <c r="CK255" s="8"/>
       <c r="CL255" s="8"/>
     </row>
-    <row r="256" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>373</v>
       </c>
@@ -12094,7 +12097,7 @@
       <c r="CK256" s="8"/>
       <c r="CL256" s="8"/>
     </row>
-    <row r="257" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>375</v>
       </c>
@@ -12192,7 +12195,7 @@
       <c r="CK257" s="8"/>
       <c r="CL257" s="8"/>
     </row>
-    <row r="258" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>377</v>
       </c>
@@ -12392,7 +12395,7 @@
       <c r="CK259" s="8"/>
       <c r="CL259" s="8"/>
     </row>
-    <row r="260" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>382</v>
       </c>
@@ -12688,7 +12691,7 @@
       <c r="CK262" s="8"/>
       <c r="CL262" s="8"/>
     </row>
-    <row r="263" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6" t="s">
         <v>389</v>
       </c>
@@ -12786,7 +12789,7 @@
       <c r="CK263" s="8"/>
       <c r="CL263" s="8"/>
     </row>
-    <row r="264" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6" t="s">
         <v>391</v>
       </c>
@@ -12884,7 +12887,7 @@
       <c r="CK264" s="8"/>
       <c r="CL264" s="8"/>
     </row>
-    <row r="265" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6" t="s">
         <v>393</v>
       </c>
@@ -13084,7 +13087,7 @@
       <c r="CK266" s="8"/>
       <c r="CL266" s="8"/>
     </row>
-    <row r="267" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6" t="s">
         <v>396</v>
       </c>
@@ -13378,7 +13381,7 @@
       <c r="CK269" s="8"/>
       <c r="CL269" s="8"/>
     </row>
-    <row r="270" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6" t="s">
         <v>402</v>
       </c>
@@ -13868,7 +13871,7 @@
       <c r="CK274" s="8"/>
       <c r="CL274" s="8"/>
     </row>
-    <row r="275" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6" t="s">
         <v>412</v>
       </c>
@@ -13966,7 +13969,7 @@
       <c r="CK275" s="8"/>
       <c r="CL275" s="8"/>
     </row>
-    <row r="276" s="9" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6" t="s">
         <v>414</v>
       </c>
@@ -14260,7 +14263,7 @@
       <c r="CK278" s="8"/>
       <c r="CL278" s="8"/>
     </row>
-    <row r="279" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6" t="s">
         <v>420</v>
       </c>
@@ -14358,7 +14361,7 @@
       <c r="CK279" s="8"/>
       <c r="CL279" s="8"/>
     </row>
-    <row r="280" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
         <v>422</v>
       </c>
@@ -14750,7 +14753,7 @@
       <c r="CK283" s="8"/>
       <c r="CL283" s="8"/>
     </row>
-    <row r="284" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
         <v>430</v>
       </c>
@@ -14848,7 +14851,7 @@
       <c r="CK284" s="8"/>
       <c r="CL284" s="8"/>
     </row>
-    <row r="285" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
         <v>432</v>
       </c>
@@ -15144,7 +15147,7 @@
       <c r="CK287" s="8"/>
       <c r="CL287" s="8"/>
     </row>
-    <row r="288" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>439</v>
       </c>
@@ -15242,7 +15245,7 @@
       <c r="CK288" s="8"/>
       <c r="CL288" s="8"/>
     </row>
-    <row r="289" s="9" customFormat="true" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" s="9" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
         <v>441</v>
       </c>
@@ -15340,7 +15343,7 @@
       <c r="CK289" s="8"/>
       <c r="CL289" s="8"/>
     </row>
-    <row r="290" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
         <v>443</v>
       </c>
@@ -15834,7 +15837,7 @@
       <c r="CK294" s="8"/>
       <c r="CL294" s="8"/>
     </row>
-    <row r="295" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
         <v>455</v>
       </c>
@@ -16916,7 +16919,7 @@
       <c r="CK305" s="8"/>
       <c r="CL305" s="8"/>
     </row>
-    <row r="306" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
         <v>478</v>
       </c>
@@ -17014,7 +17017,7 @@
       <c r="CK306" s="8"/>
       <c r="CL306" s="8"/>
     </row>
-    <row r="307" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
         <v>480</v>
       </c>
@@ -17504,7 +17507,7 @@
       <c r="CK311" s="8"/>
       <c r="CL311" s="8"/>
     </row>
-    <row r="312" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
         <v>490</v>
       </c>
@@ -17602,7 +17605,7 @@
       <c r="CK312" s="8"/>
       <c r="CL312" s="8"/>
     </row>
-    <row r="313" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
         <v>492</v>
       </c>
@@ -17700,7 +17703,7 @@
       <c r="CK313" s="8"/>
       <c r="CL313" s="8"/>
     </row>
-    <row r="314" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
         <v>494</v>
       </c>
@@ -17798,7 +17801,7 @@
       <c r="CK314" s="8"/>
       <c r="CL314" s="8"/>
     </row>
-    <row r="315" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
         <v>496</v>
       </c>
@@ -17896,7 +17899,7 @@
       <c r="CK315" s="8"/>
       <c r="CL315" s="8"/>
     </row>
-    <row r="316" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
         <v>498</v>
       </c>
@@ -17994,7 +17997,7 @@
       <c r="CK316" s="8"/>
       <c r="CL316" s="8"/>
     </row>
-    <row r="317" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
         <v>500</v>
       </c>
@@ -18186,7 +18189,7 @@
       <c r="CK318" s="8"/>
       <c r="CL318" s="8"/>
     </row>
-    <row r="319" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
         <v>503</v>
       </c>
@@ -18484,7 +18487,7 @@
       <c r="CK321" s="8"/>
       <c r="CL321" s="8"/>
     </row>
-    <row r="322" s="9" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
         <v>510</v>
       </c>
@@ -18582,7 +18585,7 @@
       <c r="CK322" s="8"/>
       <c r="CL322" s="8"/>
     </row>
-    <row r="323" s="9" customFormat="true" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" s="9" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
         <v>512</v>
       </c>
@@ -19985,2845 +19988,2845 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
-        <v>188</v>
+        <v>757</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="4" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="4" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="4" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="4" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="4" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="4" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="4" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="4" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="4" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="11" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F646" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="4" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="4" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="4" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="11" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="11" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F684" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="4" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="4" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="4" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="4" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="4" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="4" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="4" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="4" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="4" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="4" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="4" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="11" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F731" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="4" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="4" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="4" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="4" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="4" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="4" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="4" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="4" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="4" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="4" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="4" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="4" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="4" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="4" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="4" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="4" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="4" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="4" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="4" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="4" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="4" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="4" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="4" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="4" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="4" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="4" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="4" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="4" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="4" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="4" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="4" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="4" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="4" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="4" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="4" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="4" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="4" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="4" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="4" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="4" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="4" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="4" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="4" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="4" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="4" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="4" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="4" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="4" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="4" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="4" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="4" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="4" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="4" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="4" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="4" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="4" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="4" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="4" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="4" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="4" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="4" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="4" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="4" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="4" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="4" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="4" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="4" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="4" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="4" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="4" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="4" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="4" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="4" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="4" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="4" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="4" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="4" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="4" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="4" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="4" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="4" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="4" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="4" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="4" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="4" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="4" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="4" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="4" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="4" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="4" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="4" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="4" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="4" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="4" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="4" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="4" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="4" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="4" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="4" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="4" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="4" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="4" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="4" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="4" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="4" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="4" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="4" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="4" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="4" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="11" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="4" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="4" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="4" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="4" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="4" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="4" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="4" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="4" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="4" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="4" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="4" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="11" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="4" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="4" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="4" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="4" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="4" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="4" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="4" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="4" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="4" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="4" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="4" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A943" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="4" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="4" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A946" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A947" s="4" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A948" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A949" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A950" s="4" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A951" s="4" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A952" s="4" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A953" s="4" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A954" s="4" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A955" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A956" s="4" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A957" s="4" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A958" s="4" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A959" s="4" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A960" s="4" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A961" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A962" s="4" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A963" s="4" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A964" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A965" s="4" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A966" s="4" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A967" s="11" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A968" s="11" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="4" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A970" s="4" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A971" s="4" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A972" s="4" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F972" s="5" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="4" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="4" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A975" s="4" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="4" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="4" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A978" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A979" s="4" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="4" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A982" s="4" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A983" s="4" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A984" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A985" s="4" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A986" s="11" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A987" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A988" s="4" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A989" s="4" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A990" s="4" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="4" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A992" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A993" s="4" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A994" s="4" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A995" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A996" s="4" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A997" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A998" s="4" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A999" s="4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1000" s="4" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1001" s="4" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1002" s="4" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1003" s="4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1004" s="4" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1005" s="4" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1006" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1007" s="4" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1008" s="4" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1009" s="4" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1010" s="4" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1011" s="4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1012" s="4" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1013" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1014" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="4" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1016" s="4" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1017" s="4" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1018" s="4" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1019" s="4" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1020" s="4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1021" s="4" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1022" s="4" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1023" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1024" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1025" s="4" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1026" s="4" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1027" s="4" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1028" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1029" s="4" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1030" s="4" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1031" s="4" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1032" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1033" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F1033" s="5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1034" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1035" s="4" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1036" s="4" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1037" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1038" s="4" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1039" s="4" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1040" s="4" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1041" s="4" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1042" s="4" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1043" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1044" s="4" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1045" s="4" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1046" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1047" s="4" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1048" s="4" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1049" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1051" s="4" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1052" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1053" s="4" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="1054" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1054" s="4" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1055" s="4" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1056" s="4" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="1057" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1057" s="4" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="1058" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1058" s="4" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1059" s="4" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1060" s="4" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="1061" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1061" s="4" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1062" s="4" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1063" s="4" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1064" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1064" s="4" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="1065" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1065" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="1066" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1066" s="4" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="1067" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1067" s="4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1068" s="4" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="1069" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1069" s="4" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="1070" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1070" s="11" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F1070" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="1071" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1071" s="4" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1072" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1072" s="4" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="1073" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1073" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="1074" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1074" s="4" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="1075" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1075" s="4" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="1076" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1076" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="1077" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1077" s="4" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="1078" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1078" s="4" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="1079" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1079" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="1080" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1080" s="4" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="1081" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1081" s="4" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1082" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1082" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="1083" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1083" s="4" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1084" s="4" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1085" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1086" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1087" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1087" s="4" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="1088" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1088" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1089" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1089" s="4" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="1090" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1090" s="4" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="1091" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1091" s="4" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="1092" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1092" s="4" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="1093" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1093" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="1094" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1094" s="4" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="1095" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1095" s="4" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="1096" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1096" s="4" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="1097" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1097" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="1098" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1098" s="4" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="1099" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1099" s="4" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="1100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1100" s="4" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="1101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1101" s="4" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="1102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1102" s="4" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="1103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1103" s="4" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="1104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1104" s="4" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="1105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1105" s="4" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="1106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1106" s="11" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="1107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1107" s="4" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="1108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1108" s="4" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="1109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1109" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="1110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1110" s="4" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="1111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1111" s="4" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="1112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1112" s="4" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="1113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1113" s="4" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="1114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1114" s="4" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="1115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1115" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="1116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1116" s="4" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="1117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1117" s="4" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="1118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1118" s="4" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="1119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1119" s="4" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="1120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1120" s="4" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="1121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1121" s="4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1122" s="4" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1123" s="4" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="1124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1124" s="4" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1125" s="11" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1126" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="1127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1127" s="4" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1128" s="4" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1129" s="4" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1130" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
@@ -22858,66 +22861,66 @@
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
